--- a/Fase 2/Evidencias Grupales/Plantilla de Product Backlog.xlsx
+++ b/Fase 2/Evidencias Grupales/Plantilla de Product Backlog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="128">
   <si>
     <t>Desarrollo ágil: Pila de Producto (Product Backlog)</t>
   </si>
@@ -67,13 +67,17 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>Función crítica para la seguridad básica.</t>
+    <t>Joel Matamala
+Harry Ruiz</t>
   </si>
   <si>
     <t>Criterio c1</t>
   </si>
   <si>
     <t>distancia mínima configurable (ej. 0.8–1.2 m), latencia &lt; 300 ms, feedback TTS y “beep”.</t>
+  </si>
+  <si>
+    <t>Función crítica para la seguridad básica.</t>
   </si>
   <si>
     <t>Dependecia c1</t>
@@ -109,10 +113,13 @@
     <t>Peligro en movimiento</t>
   </si>
   <si>
-    <t>Planificada</t>
+    <t>Eliminado (por tiempo)</t>
   </si>
   <si>
     <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>----</t>
   </si>
   <si>
     <t>Procesamiento en tiempo real, muy útil para prevenir accidentes.</t>
@@ -157,13 +164,13 @@
     <t>Inicio de la ruta</t>
   </si>
   <si>
-    <t>Base de la navegación, dependencia de mapas.</t>
-  </si>
-  <si>
     <t>Criterios:</t>
   </si>
   <si>
     <t>setear origen/destino por voz, obtener ruta peatonal, iniciar guía con TTS, recalcular si GPS se mueve 15–20 m fuera de ruta.</t>
+  </si>
+  <si>
+    <t>Base de la navegación, dependencia de mapas.</t>
   </si>
   <si>
     <t>Depende de</t>
@@ -194,6 +201,9 @@
   </si>
   <si>
     <t>Perdida de señal</t>
+  </si>
+  <si>
+    <t>Planificada</t>
   </si>
   <si>
     <t>Evita dependencia de internet, importante en exteriores.</t>
@@ -262,6 +272,9 @@
     <t>Dinero</t>
   </si>
   <si>
+    <t>Fernando Arevaloa</t>
+  </si>
+  <si>
     <t>Apoya independencia económica del usuario.</t>
   </si>
   <si>
@@ -323,6 +336,11 @@
   </si>
   <si>
     <t>Repetir última instrucción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel Matamala
+Harry Ruiz
+</t>
   </si>
   <si>
     <t>comando “repetir”, historial de una instrucción.</t>
@@ -461,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border/>
     <border>
       <left/>
@@ -526,9 +544,18 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
     </border>
     <border>
       <right/>
@@ -536,15 +563,76 @@
       <bottom/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <top/>
       <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -587,18 +675,51 @@
     <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -648,10 +769,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Historias de Usuario-style">
+    <tableStyle count="4" pivot="0" name="Historias de Usuario-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -666,7 +788,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B4:J58" displayName="Historias_de_usuario" name="Historias_de_usuario" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B4:J43" displayName="Historias_de_usuario" name="Historias_de_usuario" id="1">
   <tableColumns count="9">
     <tableColumn name="Identificador (ID) de la Historia" id="1"/>
     <tableColumn name="Enunciado de la Historia" id="2"/>
@@ -890,8 +1012,8 @@
     <col customWidth="1" min="2" max="2" width="16.43"/>
     <col customWidth="1" min="3" max="3" width="63.71"/>
     <col customWidth="1" min="4" max="4" width="27.57"/>
-    <col customWidth="1" min="5" max="5" width="16.14"/>
-    <col customWidth="1" min="6" max="6" width="11.86"/>
+    <col customWidth="1" min="5" max="5" width="27.43"/>
+    <col customWidth="1" min="6" max="6" width="16.14"/>
     <col customWidth="1" min="7" max="7" width="17.57"/>
     <col customWidth="1" min="8" max="8" width="17.86"/>
     <col customWidth="1" min="9" max="9" width="20.43"/>
@@ -1058,11 +1180,11 @@
       <c r="H5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1089,13 +1211,15 @@
         <v>18</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="17"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1116,19 +1240,19 @@
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1149,13 +1273,13 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>13</v>
@@ -1169,11 +1293,13 @@
       <c r="H8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15" t="s">
-        <v>24</v>
+      <c r="I8" s="20" t="s">
+        <v>16</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="J8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="17"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1194,17 +1320,17 @@
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="9" t="s">
-        <v>25</v>
+      <c r="I9" s="20"/>
+      <c r="J9" s="23" t="s">
+        <v>26</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1225,17 +1351,17 @@
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="16"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="9" t="s">
-        <v>26</v>
+      <c r="I10" s="20"/>
+      <c r="J10" s="24" t="s">
+        <v>27</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1256,29 +1382,31 @@
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="12">
         <v>3.0</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15" t="s">
-        <v>32</v>
+      <c r="I11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1301,13 +1429,13 @@
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
@@ -1333,15 +1461,33 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1363,30 +1509,18 @@
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>36</v>
+      <c r="C14" s="9" t="s">
+        <v>44</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="J14" s="21"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1408,19 +1542,31 @@
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>42</v>
+      <c r="C15" s="12" t="s">
+        <v>46</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="1"/>
+      <c r="D15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1440,16 +1586,22 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="12"/>
       <c r="G16" s="13"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="17"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1470,31 +1622,19 @@
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>44</v>
+      <c r="C17" s="9" t="s">
+        <v>52</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="1"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1515,19 +1655,33 @@
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>48</v>
+      <c r="C18" s="12" t="s">
+        <v>54</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="1"/>
+      <c r="D18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="17"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1548,19 +1702,19 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1573,31 +1727,33 @@
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F20" s="12">
         <v>2.0</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15" t="s">
-        <v>54</v>
+      <c r="I20" s="20" t="s">
+        <v>16</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="J20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="17"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1610,19 +1766,19 @@
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="17"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1642,16 +1798,34 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="1"/>
+      <c r="B22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="17"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1672,31 +1846,19 @@
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>57</v>
+      <c r="C23" s="9" t="s">
+        <v>68</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="1"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1717,19 +1879,33 @@
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="8" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>60</v>
+      <c r="C24" s="12" t="s">
+        <v>70</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="1"/>
+      <c r="D24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="17"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1749,16 +1925,20 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="12"/>
       <c r="G25" s="13"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="1"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1779,31 +1959,33 @@
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="8" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26" s="12">
         <v>1.0</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15" t="s">
-        <v>64</v>
+      <c r="I26" s="20" t="s">
+        <v>33</v>
       </c>
-      <c r="K26" s="1"/>
+      <c r="J26" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="17"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1824,19 +2006,19 @@
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="12"/>
       <c r="G27" s="13"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="1"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1856,16 +2038,34 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="1"/>
+      <c r="B28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="17"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1886,31 +2086,19 @@
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="8" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>67</v>
+      <c r="C29" s="9" t="s">
+        <v>86</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" s="1"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1931,19 +2119,33 @@
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="8" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="1"/>
+      <c r="D30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="17"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -1963,16 +2165,20 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="17"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1993,31 +2199,31 @@
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="8" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F32" s="12">
         <v>1.0</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15" t="s">
-        <v>76</v>
+      <c r="I32" s="20" t="s">
+        <v>16</v>
       </c>
-      <c r="K32" s="1"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2038,19 +2244,19 @@
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="1"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2070,16 +2276,32 @@
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="1"/>
+      <c r="B34" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="17"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2100,31 +2322,19 @@
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="8" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>79</v>
+      <c r="C35" s="9" t="s">
+        <v>98</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="1"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="17"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2145,19 +2355,31 @@
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="8" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>82</v>
+      <c r="C36" s="12" t="s">
+        <v>100</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="1"/>
+      <c r="D36" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="17"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2177,16 +2399,20 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
       <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="1"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="17"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2207,31 +2433,31 @@
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="8" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>62</v>
+      <c r="C38" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F38" s="12">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15" t="s">
-        <v>85</v>
+      <c r="I38" s="20" t="s">
+        <v>106</v>
       </c>
-      <c r="K38" s="1"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="17"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -2252,19 +2478,19 @@
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="12"/>
       <c r="G39" s="13"/>
       <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="1"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="17"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -2284,16 +2510,32 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="1"/>
+      <c r="B40" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J40" s="21"/>
+      <c r="K40" s="17"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -2314,29 +2556,19 @@
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="8" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>88</v>
+      <c r="C41" s="9" t="s">
+        <v>111</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="1"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="17"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -2357,19 +2589,31 @@
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="8" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>90</v>
+      <c r="C42" s="12" t="s">
+        <v>113</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="1"/>
+      <c r="D42" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J42" s="21"/>
+      <c r="K42" s="17"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -2389,16 +2633,20 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="1"/>
+      <c r="B43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="17"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -2418,29 +2666,15 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2461,19 +2695,15 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2494,15 +2724,15 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2523,29 +2753,15 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2566,19 +2782,15 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2599,15 +2811,15 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -2628,29 +2840,15 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -2671,19 +2869,15 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -2704,15 +2898,15 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -2733,29 +2927,15 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -2776,19 +2956,15 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -2809,15 +2985,15 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -2838,29 +3014,15 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -2880,21 +3042,17 @@
       <c r="AA56" s="1"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="17"/>
-      <c r="B57" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="20"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="17"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -2913,17 +3071,17 @@
       <c r="AA57" s="1"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="20"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="17"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -2943,15 +3101,15 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -30318,7 +30476,7 @@
       <c r="AA1002" s="1"/>
     </row>
     <row r="1003" ht="14.25" customHeight="1">
-      <c r="A1003" s="22"/>
+      <c r="A1003" s="33"/>
       <c r="B1003" s="1"/>
       <c r="C1003" s="1"/>
       <c r="D1003" s="1"/>
@@ -30328,26 +30486,26 @@
       <c r="H1003" s="1"/>
       <c r="I1003" s="1"/>
       <c r="J1003" s="1"/>
-      <c r="K1003" s="22"/>
-      <c r="L1003" s="22"/>
-      <c r="M1003" s="22"/>
-      <c r="N1003" s="22"/>
-      <c r="O1003" s="22"/>
-      <c r="P1003" s="22"/>
-      <c r="Q1003" s="22"/>
-      <c r="R1003" s="22"/>
-      <c r="S1003" s="22"/>
-      <c r="T1003" s="22"/>
-      <c r="U1003" s="22"/>
-      <c r="V1003" s="22"/>
-      <c r="W1003" s="22"/>
-      <c r="X1003" s="22"/>
-      <c r="Y1003" s="22"/>
-      <c r="Z1003" s="22"/>
-      <c r="AA1003" s="22"/>
+      <c r="K1003" s="33"/>
+      <c r="L1003" s="33"/>
+      <c r="M1003" s="33"/>
+      <c r="N1003" s="33"/>
+      <c r="O1003" s="33"/>
+      <c r="P1003" s="33"/>
+      <c r="Q1003" s="33"/>
+      <c r="R1003" s="33"/>
+      <c r="S1003" s="33"/>
+      <c r="T1003" s="33"/>
+      <c r="U1003" s="33"/>
+      <c r="V1003" s="33"/>
+      <c r="W1003" s="33"/>
+      <c r="X1003" s="33"/>
+      <c r="Y1003" s="33"/>
+      <c r="Z1003" s="33"/>
+      <c r="AA1003" s="33"/>
     </row>
     <row r="1004" ht="14.25" customHeight="1">
-      <c r="A1004" s="22"/>
+      <c r="A1004" s="33"/>
       <c r="B1004" s="1"/>
       <c r="C1004" s="1"/>
       <c r="D1004" s="1"/>
@@ -30357,26 +30515,26 @@
       <c r="H1004" s="1"/>
       <c r="I1004" s="1"/>
       <c r="J1004" s="1"/>
-      <c r="K1004" s="22"/>
-      <c r="L1004" s="22"/>
-      <c r="M1004" s="22"/>
-      <c r="N1004" s="22"/>
-      <c r="O1004" s="22"/>
-      <c r="P1004" s="22"/>
-      <c r="Q1004" s="22"/>
-      <c r="R1004" s="22"/>
-      <c r="S1004" s="22"/>
-      <c r="T1004" s="22"/>
-      <c r="U1004" s="22"/>
-      <c r="V1004" s="22"/>
-      <c r="W1004" s="22"/>
-      <c r="X1004" s="22"/>
-      <c r="Y1004" s="22"/>
-      <c r="Z1004" s="22"/>
-      <c r="AA1004" s="22"/>
+      <c r="K1004" s="33"/>
+      <c r="L1004" s="33"/>
+      <c r="M1004" s="33"/>
+      <c r="N1004" s="33"/>
+      <c r="O1004" s="33"/>
+      <c r="P1004" s="33"/>
+      <c r="Q1004" s="33"/>
+      <c r="R1004" s="33"/>
+      <c r="S1004" s="33"/>
+      <c r="T1004" s="33"/>
+      <c r="U1004" s="33"/>
+      <c r="V1004" s="33"/>
+      <c r="W1004" s="33"/>
+      <c r="X1004" s="33"/>
+      <c r="Y1004" s="33"/>
+      <c r="Z1004" s="33"/>
+      <c r="AA1004" s="33"/>
     </row>
     <row r="1005" ht="14.25" customHeight="1">
-      <c r="A1005" s="22"/>
+      <c r="A1005" s="33"/>
       <c r="B1005" s="1"/>
       <c r="C1005" s="1"/>
       <c r="D1005" s="1"/>
@@ -30386,26 +30544,26 @@
       <c r="H1005" s="1"/>
       <c r="I1005" s="1"/>
       <c r="J1005" s="1"/>
-      <c r="K1005" s="22"/>
-      <c r="L1005" s="22"/>
-      <c r="M1005" s="22"/>
-      <c r="N1005" s="22"/>
-      <c r="O1005" s="22"/>
-      <c r="P1005" s="22"/>
-      <c r="Q1005" s="22"/>
-      <c r="R1005" s="22"/>
-      <c r="S1005" s="22"/>
-      <c r="T1005" s="22"/>
-      <c r="U1005" s="22"/>
-      <c r="V1005" s="22"/>
-      <c r="W1005" s="22"/>
-      <c r="X1005" s="22"/>
-      <c r="Y1005" s="22"/>
-      <c r="Z1005" s="22"/>
-      <c r="AA1005" s="22"/>
+      <c r="K1005" s="33"/>
+      <c r="L1005" s="33"/>
+      <c r="M1005" s="33"/>
+      <c r="N1005" s="33"/>
+      <c r="O1005" s="33"/>
+      <c r="P1005" s="33"/>
+      <c r="Q1005" s="33"/>
+      <c r="R1005" s="33"/>
+      <c r="S1005" s="33"/>
+      <c r="T1005" s="33"/>
+      <c r="U1005" s="33"/>
+      <c r="V1005" s="33"/>
+      <c r="W1005" s="33"/>
+      <c r="X1005" s="33"/>
+      <c r="Y1005" s="33"/>
+      <c r="Z1005" s="33"/>
+      <c r="AA1005" s="33"/>
     </row>
     <row r="1006" ht="14.25" customHeight="1">
-      <c r="A1006" s="22"/>
+      <c r="A1006" s="33"/>
       <c r="B1006" s="1"/>
       <c r="C1006" s="1"/>
       <c r="D1006" s="1"/>
@@ -30415,26 +30573,26 @@
       <c r="H1006" s="1"/>
       <c r="I1006" s="1"/>
       <c r="J1006" s="1"/>
-      <c r="K1006" s="22"/>
-      <c r="L1006" s="22"/>
-      <c r="M1006" s="22"/>
-      <c r="N1006" s="22"/>
-      <c r="O1006" s="22"/>
-      <c r="P1006" s="22"/>
-      <c r="Q1006" s="22"/>
-      <c r="R1006" s="22"/>
-      <c r="S1006" s="22"/>
-      <c r="T1006" s="22"/>
-      <c r="U1006" s="22"/>
-      <c r="V1006" s="22"/>
-      <c r="W1006" s="22"/>
-      <c r="X1006" s="22"/>
-      <c r="Y1006" s="22"/>
-      <c r="Z1006" s="22"/>
-      <c r="AA1006" s="22"/>
+      <c r="K1006" s="33"/>
+      <c r="L1006" s="33"/>
+      <c r="M1006" s="33"/>
+      <c r="N1006" s="33"/>
+      <c r="O1006" s="33"/>
+      <c r="P1006" s="33"/>
+      <c r="Q1006" s="33"/>
+      <c r="R1006" s="33"/>
+      <c r="S1006" s="33"/>
+      <c r="T1006" s="33"/>
+      <c r="U1006" s="33"/>
+      <c r="V1006" s="33"/>
+      <c r="W1006" s="33"/>
+      <c r="X1006" s="33"/>
+      <c r="Y1006" s="33"/>
+      <c r="Z1006" s="33"/>
+      <c r="AA1006" s="33"/>
     </row>
     <row r="1007" ht="14.25" customHeight="1">
-      <c r="A1007" s="22"/>
+      <c r="A1007" s="33"/>
       <c r="B1007" s="1"/>
       <c r="C1007" s="1"/>
       <c r="D1007" s="1"/>
@@ -30444,26 +30602,26 @@
       <c r="H1007" s="1"/>
       <c r="I1007" s="1"/>
       <c r="J1007" s="1"/>
-      <c r="K1007" s="22"/>
-      <c r="L1007" s="22"/>
-      <c r="M1007" s="22"/>
-      <c r="N1007" s="22"/>
-      <c r="O1007" s="22"/>
-      <c r="P1007" s="22"/>
-      <c r="Q1007" s="22"/>
-      <c r="R1007" s="22"/>
-      <c r="S1007" s="22"/>
-      <c r="T1007" s="22"/>
-      <c r="U1007" s="22"/>
-      <c r="V1007" s="22"/>
-      <c r="W1007" s="22"/>
-      <c r="X1007" s="22"/>
-      <c r="Y1007" s="22"/>
-      <c r="Z1007" s="22"/>
-      <c r="AA1007" s="22"/>
+      <c r="K1007" s="33"/>
+      <c r="L1007" s="33"/>
+      <c r="M1007" s="33"/>
+      <c r="N1007" s="33"/>
+      <c r="O1007" s="33"/>
+      <c r="P1007" s="33"/>
+      <c r="Q1007" s="33"/>
+      <c r="R1007" s="33"/>
+      <c r="S1007" s="33"/>
+      <c r="T1007" s="33"/>
+      <c r="U1007" s="33"/>
+      <c r="V1007" s="33"/>
+      <c r="W1007" s="33"/>
+      <c r="X1007" s="33"/>
+      <c r="Y1007" s="33"/>
+      <c r="Z1007" s="33"/>
+      <c r="AA1007" s="33"/>
     </row>
     <row r="1008" ht="14.25" customHeight="1">
-      <c r="A1008" s="22"/>
+      <c r="A1008" s="33"/>
       <c r="B1008" s="1"/>
       <c r="C1008" s="1"/>
       <c r="D1008" s="1"/>
@@ -30473,26 +30631,26 @@
       <c r="H1008" s="1"/>
       <c r="I1008" s="1"/>
       <c r="J1008" s="1"/>
-      <c r="K1008" s="22"/>
-      <c r="L1008" s="22"/>
-      <c r="M1008" s="22"/>
-      <c r="N1008" s="22"/>
-      <c r="O1008" s="22"/>
-      <c r="P1008" s="22"/>
-      <c r="Q1008" s="22"/>
-      <c r="R1008" s="22"/>
-      <c r="S1008" s="22"/>
-      <c r="T1008" s="22"/>
-      <c r="U1008" s="22"/>
-      <c r="V1008" s="22"/>
-      <c r="W1008" s="22"/>
-      <c r="X1008" s="22"/>
-      <c r="Y1008" s="22"/>
-      <c r="Z1008" s="22"/>
-      <c r="AA1008" s="22"/>
+      <c r="K1008" s="33"/>
+      <c r="L1008" s="33"/>
+      <c r="M1008" s="33"/>
+      <c r="N1008" s="33"/>
+      <c r="O1008" s="33"/>
+      <c r="P1008" s="33"/>
+      <c r="Q1008" s="33"/>
+      <c r="R1008" s="33"/>
+      <c r="S1008" s="33"/>
+      <c r="T1008" s="33"/>
+      <c r="U1008" s="33"/>
+      <c r="V1008" s="33"/>
+      <c r="W1008" s="33"/>
+      <c r="X1008" s="33"/>
+      <c r="Y1008" s="33"/>
+      <c r="Z1008" s="33"/>
+      <c r="AA1008" s="33"/>
     </row>
     <row r="1009" ht="14.25" customHeight="1">
-      <c r="A1009" s="22"/>
+      <c r="A1009" s="33"/>
       <c r="B1009" s="1"/>
       <c r="C1009" s="1"/>
       <c r="D1009" s="1"/>
@@ -30502,26 +30660,26 @@
       <c r="H1009" s="1"/>
       <c r="I1009" s="1"/>
       <c r="J1009" s="1"/>
-      <c r="K1009" s="22"/>
-      <c r="L1009" s="22"/>
-      <c r="M1009" s="22"/>
-      <c r="N1009" s="22"/>
-      <c r="O1009" s="22"/>
-      <c r="P1009" s="22"/>
-      <c r="Q1009" s="22"/>
-      <c r="R1009" s="22"/>
-      <c r="S1009" s="22"/>
-      <c r="T1009" s="22"/>
-      <c r="U1009" s="22"/>
-      <c r="V1009" s="22"/>
-      <c r="W1009" s="22"/>
-      <c r="X1009" s="22"/>
-      <c r="Y1009" s="22"/>
-      <c r="Z1009" s="22"/>
-      <c r="AA1009" s="22"/>
+      <c r="K1009" s="33"/>
+      <c r="L1009" s="33"/>
+      <c r="M1009" s="33"/>
+      <c r="N1009" s="33"/>
+      <c r="O1009" s="33"/>
+      <c r="P1009" s="33"/>
+      <c r="Q1009" s="33"/>
+      <c r="R1009" s="33"/>
+      <c r="S1009" s="33"/>
+      <c r="T1009" s="33"/>
+      <c r="U1009" s="33"/>
+      <c r="V1009" s="33"/>
+      <c r="W1009" s="33"/>
+      <c r="X1009" s="33"/>
+      <c r="Y1009" s="33"/>
+      <c r="Z1009" s="33"/>
+      <c r="AA1009" s="33"/>
     </row>
     <row r="1010" ht="14.25" customHeight="1">
-      <c r="A1010" s="22"/>
+      <c r="A1010" s="33"/>
       <c r="B1010" s="1"/>
       <c r="C1010" s="1"/>
       <c r="D1010" s="1"/>
@@ -30531,26 +30689,26 @@
       <c r="H1010" s="1"/>
       <c r="I1010" s="1"/>
       <c r="J1010" s="1"/>
-      <c r="K1010" s="22"/>
-      <c r="L1010" s="22"/>
-      <c r="M1010" s="22"/>
-      <c r="N1010" s="22"/>
-      <c r="O1010" s="22"/>
-      <c r="P1010" s="22"/>
-      <c r="Q1010" s="22"/>
-      <c r="R1010" s="22"/>
-      <c r="S1010" s="22"/>
-      <c r="T1010" s="22"/>
-      <c r="U1010" s="22"/>
-      <c r="V1010" s="22"/>
-      <c r="W1010" s="22"/>
-      <c r="X1010" s="22"/>
-      <c r="Y1010" s="22"/>
-      <c r="Z1010" s="22"/>
-      <c r="AA1010" s="22"/>
+      <c r="K1010" s="33"/>
+      <c r="L1010" s="33"/>
+      <c r="M1010" s="33"/>
+      <c r="N1010" s="33"/>
+      <c r="O1010" s="33"/>
+      <c r="P1010" s="33"/>
+      <c r="Q1010" s="33"/>
+      <c r="R1010" s="33"/>
+      <c r="S1010" s="33"/>
+      <c r="T1010" s="33"/>
+      <c r="U1010" s="33"/>
+      <c r="V1010" s="33"/>
+      <c r="W1010" s="33"/>
+      <c r="X1010" s="33"/>
+      <c r="Y1010" s="33"/>
+      <c r="Z1010" s="33"/>
+      <c r="AA1010" s="33"/>
     </row>
     <row r="1011" ht="14.25" customHeight="1">
-      <c r="A1011" s="22"/>
+      <c r="A1011" s="33"/>
       <c r="B1011" s="1"/>
       <c r="C1011" s="1"/>
       <c r="D1011" s="1"/>
@@ -30560,26 +30718,26 @@
       <c r="H1011" s="1"/>
       <c r="I1011" s="1"/>
       <c r="J1011" s="1"/>
-      <c r="K1011" s="22"/>
-      <c r="L1011" s="22"/>
-      <c r="M1011" s="22"/>
-      <c r="N1011" s="22"/>
-      <c r="O1011" s="22"/>
-      <c r="P1011" s="22"/>
-      <c r="Q1011" s="22"/>
-      <c r="R1011" s="22"/>
-      <c r="S1011" s="22"/>
-      <c r="T1011" s="22"/>
-      <c r="U1011" s="22"/>
-      <c r="V1011" s="22"/>
-      <c r="W1011" s="22"/>
-      <c r="X1011" s="22"/>
-      <c r="Y1011" s="22"/>
-      <c r="Z1011" s="22"/>
-      <c r="AA1011" s="22"/>
+      <c r="K1011" s="33"/>
+      <c r="L1011" s="33"/>
+      <c r="M1011" s="33"/>
+      <c r="N1011" s="33"/>
+      <c r="O1011" s="33"/>
+      <c r="P1011" s="33"/>
+      <c r="Q1011" s="33"/>
+      <c r="R1011" s="33"/>
+      <c r="S1011" s="33"/>
+      <c r="T1011" s="33"/>
+      <c r="U1011" s="33"/>
+      <c r="V1011" s="33"/>
+      <c r="W1011" s="33"/>
+      <c r="X1011" s="33"/>
+      <c r="Y1011" s="33"/>
+      <c r="Z1011" s="33"/>
+      <c r="AA1011" s="33"/>
     </row>
     <row r="1012" ht="14.25" customHeight="1">
-      <c r="A1012" s="22"/>
+      <c r="A1012" s="33"/>
       <c r="B1012" s="1"/>
       <c r="C1012" s="1"/>
       <c r="D1012" s="1"/>
@@ -30589,26 +30747,26 @@
       <c r="H1012" s="1"/>
       <c r="I1012" s="1"/>
       <c r="J1012" s="1"/>
-      <c r="K1012" s="22"/>
-      <c r="L1012" s="22"/>
-      <c r="M1012" s="22"/>
-      <c r="N1012" s="22"/>
-      <c r="O1012" s="22"/>
-      <c r="P1012" s="22"/>
-      <c r="Q1012" s="22"/>
-      <c r="R1012" s="22"/>
-      <c r="S1012" s="22"/>
-      <c r="T1012" s="22"/>
-      <c r="U1012" s="22"/>
-      <c r="V1012" s="22"/>
-      <c r="W1012" s="22"/>
-      <c r="X1012" s="22"/>
-      <c r="Y1012" s="22"/>
-      <c r="Z1012" s="22"/>
-      <c r="AA1012" s="22"/>
+      <c r="K1012" s="33"/>
+      <c r="L1012" s="33"/>
+      <c r="M1012" s="33"/>
+      <c r="N1012" s="33"/>
+      <c r="O1012" s="33"/>
+      <c r="P1012" s="33"/>
+      <c r="Q1012" s="33"/>
+      <c r="R1012" s="33"/>
+      <c r="S1012" s="33"/>
+      <c r="T1012" s="33"/>
+      <c r="U1012" s="33"/>
+      <c r="V1012" s="33"/>
+      <c r="W1012" s="33"/>
+      <c r="X1012" s="33"/>
+      <c r="Y1012" s="33"/>
+      <c r="Z1012" s="33"/>
+      <c r="AA1012" s="33"/>
     </row>
     <row r="1013" ht="14.25" customHeight="1">
-      <c r="A1013" s="22"/>
+      <c r="A1013" s="33"/>
       <c r="B1013" s="1"/>
       <c r="C1013" s="1"/>
       <c r="D1013" s="1"/>
@@ -30618,26 +30776,26 @@
       <c r="H1013" s="1"/>
       <c r="I1013" s="1"/>
       <c r="J1013" s="1"/>
-      <c r="K1013" s="22"/>
-      <c r="L1013" s="22"/>
-      <c r="M1013" s="22"/>
-      <c r="N1013" s="22"/>
-      <c r="O1013" s="22"/>
-      <c r="P1013" s="22"/>
-      <c r="Q1013" s="22"/>
-      <c r="R1013" s="22"/>
-      <c r="S1013" s="22"/>
-      <c r="T1013" s="22"/>
-      <c r="U1013" s="22"/>
-      <c r="V1013" s="22"/>
-      <c r="W1013" s="22"/>
-      <c r="X1013" s="22"/>
-      <c r="Y1013" s="22"/>
-      <c r="Z1013" s="22"/>
-      <c r="AA1013" s="22"/>
+      <c r="K1013" s="33"/>
+      <c r="L1013" s="33"/>
+      <c r="M1013" s="33"/>
+      <c r="N1013" s="33"/>
+      <c r="O1013" s="33"/>
+      <c r="P1013" s="33"/>
+      <c r="Q1013" s="33"/>
+      <c r="R1013" s="33"/>
+      <c r="S1013" s="33"/>
+      <c r="T1013" s="33"/>
+      <c r="U1013" s="33"/>
+      <c r="V1013" s="33"/>
+      <c r="W1013" s="33"/>
+      <c r="X1013" s="33"/>
+      <c r="Y1013" s="33"/>
+      <c r="Z1013" s="33"/>
+      <c r="AA1013" s="33"/>
     </row>
     <row r="1014" ht="14.25" customHeight="1">
-      <c r="A1014" s="22"/>
+      <c r="A1014" s="33"/>
       <c r="B1014" s="1"/>
       <c r="C1014" s="1"/>
       <c r="D1014" s="1"/>
@@ -30647,26 +30805,26 @@
       <c r="H1014" s="1"/>
       <c r="I1014" s="1"/>
       <c r="J1014" s="1"/>
-      <c r="K1014" s="22"/>
-      <c r="L1014" s="22"/>
-      <c r="M1014" s="22"/>
-      <c r="N1014" s="22"/>
-      <c r="O1014" s="22"/>
-      <c r="P1014" s="22"/>
-      <c r="Q1014" s="22"/>
-      <c r="R1014" s="22"/>
-      <c r="S1014" s="22"/>
-      <c r="T1014" s="22"/>
-      <c r="U1014" s="22"/>
-      <c r="V1014" s="22"/>
-      <c r="W1014" s="22"/>
-      <c r="X1014" s="22"/>
-      <c r="Y1014" s="22"/>
-      <c r="Z1014" s="22"/>
-      <c r="AA1014" s="22"/>
+      <c r="K1014" s="33"/>
+      <c r="L1014" s="33"/>
+      <c r="M1014" s="33"/>
+      <c r="N1014" s="33"/>
+      <c r="O1014" s="33"/>
+      <c r="P1014" s="33"/>
+      <c r="Q1014" s="33"/>
+      <c r="R1014" s="33"/>
+      <c r="S1014" s="33"/>
+      <c r="T1014" s="33"/>
+      <c r="U1014" s="33"/>
+      <c r="V1014" s="33"/>
+      <c r="W1014" s="33"/>
+      <c r="X1014" s="33"/>
+      <c r="Y1014" s="33"/>
+      <c r="Z1014" s="33"/>
+      <c r="AA1014" s="33"/>
     </row>
     <row r="1015" ht="14.25" customHeight="1">
-      <c r="A1015" s="22"/>
+      <c r="A1015" s="33"/>
       <c r="B1015" s="1"/>
       <c r="C1015" s="1"/>
       <c r="D1015" s="1"/>
@@ -30676,26 +30834,26 @@
       <c r="H1015" s="1"/>
       <c r="I1015" s="1"/>
       <c r="J1015" s="1"/>
-      <c r="K1015" s="22"/>
-      <c r="L1015" s="22"/>
-      <c r="M1015" s="22"/>
-      <c r="N1015" s="22"/>
-      <c r="O1015" s="22"/>
-      <c r="P1015" s="22"/>
-      <c r="Q1015" s="22"/>
-      <c r="R1015" s="22"/>
-      <c r="S1015" s="22"/>
-      <c r="T1015" s="22"/>
-      <c r="U1015" s="22"/>
-      <c r="V1015" s="22"/>
-      <c r="W1015" s="22"/>
-      <c r="X1015" s="22"/>
-      <c r="Y1015" s="22"/>
-      <c r="Z1015" s="22"/>
-      <c r="AA1015" s="22"/>
+      <c r="K1015" s="33"/>
+      <c r="L1015" s="33"/>
+      <c r="M1015" s="33"/>
+      <c r="N1015" s="33"/>
+      <c r="O1015" s="33"/>
+      <c r="P1015" s="33"/>
+      <c r="Q1015" s="33"/>
+      <c r="R1015" s="33"/>
+      <c r="S1015" s="33"/>
+      <c r="T1015" s="33"/>
+      <c r="U1015" s="33"/>
+      <c r="V1015" s="33"/>
+      <c r="W1015" s="33"/>
+      <c r="X1015" s="33"/>
+      <c r="Y1015" s="33"/>
+      <c r="Z1015" s="33"/>
+      <c r="AA1015" s="33"/>
     </row>
     <row r="1016" ht="14.25" customHeight="1">
-      <c r="A1016" s="22"/>
+      <c r="A1016" s="33"/>
       <c r="B1016" s="1"/>
       <c r="C1016" s="1"/>
       <c r="D1016" s="1"/>
@@ -30705,26 +30863,26 @@
       <c r="H1016" s="1"/>
       <c r="I1016" s="1"/>
       <c r="J1016" s="1"/>
-      <c r="K1016" s="22"/>
-      <c r="L1016" s="22"/>
-      <c r="M1016" s="22"/>
-      <c r="N1016" s="22"/>
-      <c r="O1016" s="22"/>
-      <c r="P1016" s="22"/>
-      <c r="Q1016" s="22"/>
-      <c r="R1016" s="22"/>
-      <c r="S1016" s="22"/>
-      <c r="T1016" s="22"/>
-      <c r="U1016" s="22"/>
-      <c r="V1016" s="22"/>
-      <c r="W1016" s="22"/>
-      <c r="X1016" s="22"/>
-      <c r="Y1016" s="22"/>
-      <c r="Z1016" s="22"/>
-      <c r="AA1016" s="22"/>
+      <c r="K1016" s="33"/>
+      <c r="L1016" s="33"/>
+      <c r="M1016" s="33"/>
+      <c r="N1016" s="33"/>
+      <c r="O1016" s="33"/>
+      <c r="P1016" s="33"/>
+      <c r="Q1016" s="33"/>
+      <c r="R1016" s="33"/>
+      <c r="S1016" s="33"/>
+      <c r="T1016" s="33"/>
+      <c r="U1016" s="33"/>
+      <c r="V1016" s="33"/>
+      <c r="W1016" s="33"/>
+      <c r="X1016" s="33"/>
+      <c r="Y1016" s="33"/>
+      <c r="Z1016" s="33"/>
+      <c r="AA1016" s="33"/>
     </row>
     <row r="1017" ht="14.25" customHeight="1">
-      <c r="A1017" s="22"/>
+      <c r="A1017" s="33"/>
       <c r="B1017" s="1"/>
       <c r="C1017" s="1"/>
       <c r="D1017" s="1"/>
@@ -30734,26 +30892,26 @@
       <c r="H1017" s="1"/>
       <c r="I1017" s="1"/>
       <c r="J1017" s="1"/>
-      <c r="K1017" s="22"/>
-      <c r="L1017" s="22"/>
-      <c r="M1017" s="22"/>
-      <c r="N1017" s="22"/>
-      <c r="O1017" s="22"/>
-      <c r="P1017" s="22"/>
-      <c r="Q1017" s="22"/>
-      <c r="R1017" s="22"/>
-      <c r="S1017" s="22"/>
-      <c r="T1017" s="22"/>
-      <c r="U1017" s="22"/>
-      <c r="V1017" s="22"/>
-      <c r="W1017" s="22"/>
-      <c r="X1017" s="22"/>
-      <c r="Y1017" s="22"/>
-      <c r="Z1017" s="22"/>
-      <c r="AA1017" s="22"/>
+      <c r="K1017" s="33"/>
+      <c r="L1017" s="33"/>
+      <c r="M1017" s="33"/>
+      <c r="N1017" s="33"/>
+      <c r="O1017" s="33"/>
+      <c r="P1017" s="33"/>
+      <c r="Q1017" s="33"/>
+      <c r="R1017" s="33"/>
+      <c r="S1017" s="33"/>
+      <c r="T1017" s="33"/>
+      <c r="U1017" s="33"/>
+      <c r="V1017" s="33"/>
+      <c r="W1017" s="33"/>
+      <c r="X1017" s="33"/>
+      <c r="Y1017" s="33"/>
+      <c r="Z1017" s="33"/>
+      <c r="AA1017" s="33"/>
     </row>
     <row r="1018" ht="14.25" customHeight="1">
-      <c r="A1018" s="22"/>
+      <c r="A1018" s="33"/>
       <c r="B1018" s="1"/>
       <c r="C1018" s="1"/>
       <c r="D1018" s="1"/>
@@ -30763,26 +30921,26 @@
       <c r="H1018" s="1"/>
       <c r="I1018" s="1"/>
       <c r="J1018" s="1"/>
-      <c r="K1018" s="22"/>
-      <c r="L1018" s="22"/>
-      <c r="M1018" s="22"/>
-      <c r="N1018" s="22"/>
-      <c r="O1018" s="22"/>
-      <c r="P1018" s="22"/>
-      <c r="Q1018" s="22"/>
-      <c r="R1018" s="22"/>
-      <c r="S1018" s="22"/>
-      <c r="T1018" s="22"/>
-      <c r="U1018" s="22"/>
-      <c r="V1018" s="22"/>
-      <c r="W1018" s="22"/>
-      <c r="X1018" s="22"/>
-      <c r="Y1018" s="22"/>
-      <c r="Z1018" s="22"/>
-      <c r="AA1018" s="22"/>
+      <c r="K1018" s="33"/>
+      <c r="L1018" s="33"/>
+      <c r="M1018" s="33"/>
+      <c r="N1018" s="33"/>
+      <c r="O1018" s="33"/>
+      <c r="P1018" s="33"/>
+      <c r="Q1018" s="33"/>
+      <c r="R1018" s="33"/>
+      <c r="S1018" s="33"/>
+      <c r="T1018" s="33"/>
+      <c r="U1018" s="33"/>
+      <c r="V1018" s="33"/>
+      <c r="W1018" s="33"/>
+      <c r="X1018" s="33"/>
+      <c r="Y1018" s="33"/>
+      <c r="Z1018" s="33"/>
+      <c r="AA1018" s="33"/>
     </row>
     <row r="1019" ht="14.25" customHeight="1">
-      <c r="A1019" s="22"/>
+      <c r="A1019" s="33"/>
       <c r="B1019" s="1"/>
       <c r="C1019" s="1"/>
       <c r="D1019" s="1"/>
@@ -30792,469 +30950,334 @@
       <c r="H1019" s="1"/>
       <c r="I1019" s="1"/>
       <c r="J1019" s="1"/>
-      <c r="K1019" s="22"/>
-      <c r="L1019" s="22"/>
-      <c r="M1019" s="22"/>
-      <c r="N1019" s="22"/>
-      <c r="O1019" s="22"/>
-      <c r="P1019" s="22"/>
-      <c r="Q1019" s="22"/>
-      <c r="R1019" s="22"/>
-      <c r="S1019" s="22"/>
-      <c r="T1019" s="22"/>
-      <c r="U1019" s="22"/>
-      <c r="V1019" s="22"/>
-      <c r="W1019" s="22"/>
-      <c r="X1019" s="22"/>
-      <c r="Y1019" s="22"/>
-      <c r="Z1019" s="22"/>
-      <c r="AA1019" s="22"/>
+      <c r="K1019" s="33"/>
+      <c r="L1019" s="33"/>
+      <c r="M1019" s="33"/>
+      <c r="N1019" s="33"/>
+      <c r="O1019" s="33"/>
+      <c r="P1019" s="33"/>
+      <c r="Q1019" s="33"/>
+      <c r="R1019" s="33"/>
+      <c r="S1019" s="33"/>
+      <c r="T1019" s="33"/>
+      <c r="U1019" s="33"/>
+      <c r="V1019" s="33"/>
+      <c r="W1019" s="33"/>
+      <c r="X1019" s="33"/>
+      <c r="Y1019" s="33"/>
+      <c r="Z1019" s="33"/>
+      <c r="AA1019" s="33"/>
     </row>
     <row r="1020" ht="14.25" customHeight="1">
-      <c r="A1020" s="22"/>
-      <c r="B1020" s="1"/>
-      <c r="C1020" s="1"/>
-      <c r="D1020" s="1"/>
-      <c r="E1020" s="1"/>
-      <c r="F1020" s="1"/>
-      <c r="G1020" s="1"/>
-      <c r="H1020" s="1"/>
-      <c r="I1020" s="1"/>
-      <c r="J1020" s="1"/>
-      <c r="K1020" s="22"/>
-      <c r="L1020" s="22"/>
-      <c r="M1020" s="22"/>
-      <c r="N1020" s="22"/>
-      <c r="O1020" s="22"/>
-      <c r="P1020" s="22"/>
-      <c r="Q1020" s="22"/>
-      <c r="R1020" s="22"/>
-      <c r="S1020" s="22"/>
-      <c r="T1020" s="22"/>
-      <c r="U1020" s="22"/>
-      <c r="V1020" s="22"/>
-      <c r="W1020" s="22"/>
-      <c r="X1020" s="22"/>
-      <c r="Y1020" s="22"/>
-      <c r="Z1020" s="22"/>
-      <c r="AA1020" s="22"/>
+      <c r="A1020" s="33"/>
+      <c r="K1020" s="33"/>
+      <c r="L1020" s="33"/>
+      <c r="M1020" s="33"/>
+      <c r="N1020" s="33"/>
+      <c r="O1020" s="33"/>
+      <c r="P1020" s="33"/>
+      <c r="Q1020" s="33"/>
+      <c r="R1020" s="33"/>
+      <c r="S1020" s="33"/>
+      <c r="T1020" s="33"/>
+      <c r="U1020" s="33"/>
+      <c r="V1020" s="33"/>
+      <c r="W1020" s="33"/>
+      <c r="X1020" s="33"/>
+      <c r="Y1020" s="33"/>
+      <c r="Z1020" s="33"/>
+      <c r="AA1020" s="33"/>
     </row>
     <row r="1021" ht="14.25" customHeight="1">
-      <c r="A1021" s="22"/>
-      <c r="B1021" s="1"/>
-      <c r="C1021" s="1"/>
-      <c r="D1021" s="1"/>
-      <c r="E1021" s="1"/>
-      <c r="F1021" s="1"/>
-      <c r="G1021" s="1"/>
-      <c r="H1021" s="1"/>
-      <c r="I1021" s="1"/>
-      <c r="J1021" s="1"/>
-      <c r="K1021" s="22"/>
-      <c r="L1021" s="22"/>
-      <c r="M1021" s="22"/>
-      <c r="N1021" s="22"/>
-      <c r="O1021" s="22"/>
-      <c r="P1021" s="22"/>
-      <c r="Q1021" s="22"/>
-      <c r="R1021" s="22"/>
-      <c r="S1021" s="22"/>
-      <c r="T1021" s="22"/>
-      <c r="U1021" s="22"/>
-      <c r="V1021" s="22"/>
-      <c r="W1021" s="22"/>
-      <c r="X1021" s="22"/>
-      <c r="Y1021" s="22"/>
-      <c r="Z1021" s="22"/>
-      <c r="AA1021" s="22"/>
+      <c r="A1021" s="33"/>
+      <c r="K1021" s="33"/>
+      <c r="L1021" s="33"/>
+      <c r="M1021" s="33"/>
+      <c r="N1021" s="33"/>
+      <c r="O1021" s="33"/>
+      <c r="P1021" s="33"/>
+      <c r="Q1021" s="33"/>
+      <c r="R1021" s="33"/>
+      <c r="S1021" s="33"/>
+      <c r="T1021" s="33"/>
+      <c r="U1021" s="33"/>
+      <c r="V1021" s="33"/>
+      <c r="W1021" s="33"/>
+      <c r="X1021" s="33"/>
+      <c r="Y1021" s="33"/>
+      <c r="Z1021" s="33"/>
+      <c r="AA1021" s="33"/>
     </row>
     <row r="1022" ht="14.25" customHeight="1">
-      <c r="A1022" s="22"/>
-      <c r="B1022" s="1"/>
-      <c r="C1022" s="1"/>
-      <c r="D1022" s="1"/>
-      <c r="E1022" s="1"/>
-      <c r="F1022" s="1"/>
-      <c r="G1022" s="1"/>
-      <c r="H1022" s="1"/>
-      <c r="I1022" s="1"/>
-      <c r="J1022" s="1"/>
-      <c r="K1022" s="22"/>
-      <c r="L1022" s="22"/>
-      <c r="M1022" s="22"/>
-      <c r="N1022" s="22"/>
-      <c r="O1022" s="22"/>
-      <c r="P1022" s="22"/>
-      <c r="Q1022" s="22"/>
-      <c r="R1022" s="22"/>
-      <c r="S1022" s="22"/>
-      <c r="T1022" s="22"/>
-      <c r="U1022" s="22"/>
-      <c r="V1022" s="22"/>
-      <c r="W1022" s="22"/>
-      <c r="X1022" s="22"/>
-      <c r="Y1022" s="22"/>
-      <c r="Z1022" s="22"/>
-      <c r="AA1022" s="22"/>
+      <c r="A1022" s="33"/>
+      <c r="K1022" s="33"/>
+      <c r="L1022" s="33"/>
+      <c r="M1022" s="33"/>
+      <c r="N1022" s="33"/>
+      <c r="O1022" s="33"/>
+      <c r="P1022" s="33"/>
+      <c r="Q1022" s="33"/>
+      <c r="R1022" s="33"/>
+      <c r="S1022" s="33"/>
+      <c r="T1022" s="33"/>
+      <c r="U1022" s="33"/>
+      <c r="V1022" s="33"/>
+      <c r="W1022" s="33"/>
+      <c r="X1022" s="33"/>
+      <c r="Y1022" s="33"/>
+      <c r="Z1022" s="33"/>
+      <c r="AA1022" s="33"/>
     </row>
     <row r="1023" ht="14.25" customHeight="1">
-      <c r="A1023" s="22"/>
-      <c r="B1023" s="1"/>
-      <c r="C1023" s="1"/>
-      <c r="D1023" s="1"/>
-      <c r="E1023" s="1"/>
-      <c r="F1023" s="1"/>
-      <c r="G1023" s="1"/>
-      <c r="H1023" s="1"/>
-      <c r="I1023" s="1"/>
-      <c r="J1023" s="1"/>
-      <c r="K1023" s="22"/>
-      <c r="L1023" s="22"/>
-      <c r="M1023" s="22"/>
-      <c r="N1023" s="22"/>
-      <c r="O1023" s="22"/>
-      <c r="P1023" s="22"/>
-      <c r="Q1023" s="22"/>
-      <c r="R1023" s="22"/>
-      <c r="S1023" s="22"/>
-      <c r="T1023" s="22"/>
-      <c r="U1023" s="22"/>
-      <c r="V1023" s="22"/>
-      <c r="W1023" s="22"/>
-      <c r="X1023" s="22"/>
-      <c r="Y1023" s="22"/>
-      <c r="Z1023" s="22"/>
-      <c r="AA1023" s="22"/>
+      <c r="A1023" s="33"/>
+      <c r="K1023" s="33"/>
+      <c r="L1023" s="33"/>
+      <c r="M1023" s="33"/>
+      <c r="N1023" s="33"/>
+      <c r="O1023" s="33"/>
+      <c r="P1023" s="33"/>
+      <c r="Q1023" s="33"/>
+      <c r="R1023" s="33"/>
+      <c r="S1023" s="33"/>
+      <c r="T1023" s="33"/>
+      <c r="U1023" s="33"/>
+      <c r="V1023" s="33"/>
+      <c r="W1023" s="33"/>
+      <c r="X1023" s="33"/>
+      <c r="Y1023" s="33"/>
+      <c r="Z1023" s="33"/>
+      <c r="AA1023" s="33"/>
     </row>
     <row r="1024" ht="14.25" customHeight="1">
-      <c r="A1024" s="22"/>
-      <c r="B1024" s="1"/>
-      <c r="C1024" s="1"/>
-      <c r="D1024" s="1"/>
-      <c r="E1024" s="1"/>
-      <c r="F1024" s="1"/>
-      <c r="G1024" s="1"/>
-      <c r="H1024" s="1"/>
-      <c r="I1024" s="1"/>
-      <c r="J1024" s="1"/>
-      <c r="K1024" s="22"/>
-      <c r="L1024" s="22"/>
-      <c r="M1024" s="22"/>
-      <c r="N1024" s="22"/>
-      <c r="O1024" s="22"/>
-      <c r="P1024" s="22"/>
-      <c r="Q1024" s="22"/>
-      <c r="R1024" s="22"/>
-      <c r="S1024" s="22"/>
-      <c r="T1024" s="22"/>
-      <c r="U1024" s="22"/>
-      <c r="V1024" s="22"/>
-      <c r="W1024" s="22"/>
-      <c r="X1024" s="22"/>
-      <c r="Y1024" s="22"/>
-      <c r="Z1024" s="22"/>
-      <c r="AA1024" s="22"/>
+      <c r="A1024" s="33"/>
+      <c r="K1024" s="33"/>
+      <c r="L1024" s="33"/>
+      <c r="M1024" s="33"/>
+      <c r="N1024" s="33"/>
+      <c r="O1024" s="33"/>
+      <c r="P1024" s="33"/>
+      <c r="Q1024" s="33"/>
+      <c r="R1024" s="33"/>
+      <c r="S1024" s="33"/>
+      <c r="T1024" s="33"/>
+      <c r="U1024" s="33"/>
+      <c r="V1024" s="33"/>
+      <c r="W1024" s="33"/>
+      <c r="X1024" s="33"/>
+      <c r="Y1024" s="33"/>
+      <c r="Z1024" s="33"/>
+      <c r="AA1024" s="33"/>
     </row>
     <row r="1025" ht="14.25" customHeight="1">
-      <c r="A1025" s="22"/>
-      <c r="B1025" s="1"/>
-      <c r="C1025" s="1"/>
-      <c r="D1025" s="1"/>
-      <c r="E1025" s="1"/>
-      <c r="F1025" s="1"/>
-      <c r="G1025" s="1"/>
-      <c r="H1025" s="1"/>
-      <c r="I1025" s="1"/>
-      <c r="J1025" s="1"/>
-      <c r="K1025" s="22"/>
-      <c r="L1025" s="22"/>
-      <c r="M1025" s="22"/>
-      <c r="N1025" s="22"/>
-      <c r="O1025" s="22"/>
-      <c r="P1025" s="22"/>
-      <c r="Q1025" s="22"/>
-      <c r="R1025" s="22"/>
-      <c r="S1025" s="22"/>
-      <c r="T1025" s="22"/>
-      <c r="U1025" s="22"/>
-      <c r="V1025" s="22"/>
-      <c r="W1025" s="22"/>
-      <c r="X1025" s="22"/>
-      <c r="Y1025" s="22"/>
-      <c r="Z1025" s="22"/>
-      <c r="AA1025" s="22"/>
+      <c r="A1025" s="33"/>
+      <c r="K1025" s="33"/>
+      <c r="L1025" s="33"/>
+      <c r="M1025" s="33"/>
+      <c r="N1025" s="33"/>
+      <c r="O1025" s="33"/>
+      <c r="P1025" s="33"/>
+      <c r="Q1025" s="33"/>
+      <c r="R1025" s="33"/>
+      <c r="S1025" s="33"/>
+      <c r="T1025" s="33"/>
+      <c r="U1025" s="33"/>
+      <c r="V1025" s="33"/>
+      <c r="W1025" s="33"/>
+      <c r="X1025" s="33"/>
+      <c r="Y1025" s="33"/>
+      <c r="Z1025" s="33"/>
+      <c r="AA1025" s="33"/>
     </row>
     <row r="1026" ht="14.25" customHeight="1">
-      <c r="A1026" s="22"/>
-      <c r="B1026" s="1"/>
-      <c r="C1026" s="1"/>
-      <c r="D1026" s="1"/>
-      <c r="E1026" s="1"/>
-      <c r="F1026" s="1"/>
-      <c r="G1026" s="1"/>
-      <c r="H1026" s="1"/>
-      <c r="I1026" s="1"/>
-      <c r="J1026" s="1"/>
-      <c r="K1026" s="22"/>
-      <c r="L1026" s="22"/>
-      <c r="M1026" s="22"/>
-      <c r="N1026" s="22"/>
-      <c r="O1026" s="22"/>
-      <c r="P1026" s="22"/>
-      <c r="Q1026" s="22"/>
-      <c r="R1026" s="22"/>
-      <c r="S1026" s="22"/>
-      <c r="T1026" s="22"/>
-      <c r="U1026" s="22"/>
-      <c r="V1026" s="22"/>
-      <c r="W1026" s="22"/>
-      <c r="X1026" s="22"/>
-      <c r="Y1026" s="22"/>
-      <c r="Z1026" s="22"/>
-      <c r="AA1026" s="22"/>
+      <c r="A1026" s="33"/>
+      <c r="K1026" s="33"/>
+      <c r="L1026" s="33"/>
+      <c r="M1026" s="33"/>
+      <c r="N1026" s="33"/>
+      <c r="O1026" s="33"/>
+      <c r="P1026" s="33"/>
+      <c r="Q1026" s="33"/>
+      <c r="R1026" s="33"/>
+      <c r="S1026" s="33"/>
+      <c r="T1026" s="33"/>
+      <c r="U1026" s="33"/>
+      <c r="V1026" s="33"/>
+      <c r="W1026" s="33"/>
+      <c r="X1026" s="33"/>
+      <c r="Y1026" s="33"/>
+      <c r="Z1026" s="33"/>
+      <c r="AA1026" s="33"/>
     </row>
     <row r="1027" ht="14.25" customHeight="1">
-      <c r="A1027" s="22"/>
-      <c r="B1027" s="1"/>
-      <c r="C1027" s="1"/>
-      <c r="D1027" s="1"/>
-      <c r="E1027" s="1"/>
-      <c r="F1027" s="1"/>
-      <c r="G1027" s="1"/>
-      <c r="H1027" s="1"/>
-      <c r="I1027" s="1"/>
-      <c r="J1027" s="1"/>
-      <c r="K1027" s="22"/>
-      <c r="L1027" s="22"/>
-      <c r="M1027" s="22"/>
-      <c r="N1027" s="22"/>
-      <c r="O1027" s="22"/>
-      <c r="P1027" s="22"/>
-      <c r="Q1027" s="22"/>
-      <c r="R1027" s="22"/>
-      <c r="S1027" s="22"/>
-      <c r="T1027" s="22"/>
-      <c r="U1027" s="22"/>
-      <c r="V1027" s="22"/>
-      <c r="W1027" s="22"/>
-      <c r="X1027" s="22"/>
-      <c r="Y1027" s="22"/>
-      <c r="Z1027" s="22"/>
-      <c r="AA1027" s="22"/>
+      <c r="A1027" s="33"/>
+      <c r="K1027" s="33"/>
+      <c r="L1027" s="33"/>
+      <c r="M1027" s="33"/>
+      <c r="N1027" s="33"/>
+      <c r="O1027" s="33"/>
+      <c r="P1027" s="33"/>
+      <c r="Q1027" s="33"/>
+      <c r="R1027" s="33"/>
+      <c r="S1027" s="33"/>
+      <c r="T1027" s="33"/>
+      <c r="U1027" s="33"/>
+      <c r="V1027" s="33"/>
+      <c r="W1027" s="33"/>
+      <c r="X1027" s="33"/>
+      <c r="Y1027" s="33"/>
+      <c r="Z1027" s="33"/>
+      <c r="AA1027" s="33"/>
     </row>
     <row r="1028" ht="14.25" customHeight="1">
-      <c r="A1028" s="22"/>
-      <c r="B1028" s="1"/>
-      <c r="C1028" s="1"/>
-      <c r="D1028" s="1"/>
-      <c r="E1028" s="1"/>
-      <c r="F1028" s="1"/>
-      <c r="G1028" s="1"/>
-      <c r="H1028" s="1"/>
-      <c r="I1028" s="1"/>
-      <c r="J1028" s="1"/>
-      <c r="K1028" s="22"/>
-      <c r="L1028" s="22"/>
-      <c r="M1028" s="22"/>
-      <c r="N1028" s="22"/>
-      <c r="O1028" s="22"/>
-      <c r="P1028" s="22"/>
-      <c r="Q1028" s="22"/>
-      <c r="R1028" s="22"/>
-      <c r="S1028" s="22"/>
-      <c r="T1028" s="22"/>
-      <c r="U1028" s="22"/>
-      <c r="V1028" s="22"/>
-      <c r="W1028" s="22"/>
-      <c r="X1028" s="22"/>
-      <c r="Y1028" s="22"/>
-      <c r="Z1028" s="22"/>
-      <c r="AA1028" s="22"/>
+      <c r="A1028" s="33"/>
+      <c r="K1028" s="33"/>
+      <c r="L1028" s="33"/>
+      <c r="M1028" s="33"/>
+      <c r="N1028" s="33"/>
+      <c r="O1028" s="33"/>
+      <c r="P1028" s="33"/>
+      <c r="Q1028" s="33"/>
+      <c r="R1028" s="33"/>
+      <c r="S1028" s="33"/>
+      <c r="T1028" s="33"/>
+      <c r="U1028" s="33"/>
+      <c r="V1028" s="33"/>
+      <c r="W1028" s="33"/>
+      <c r="X1028" s="33"/>
+      <c r="Y1028" s="33"/>
+      <c r="Z1028" s="33"/>
+      <c r="AA1028" s="33"/>
     </row>
     <row r="1029" ht="14.25" customHeight="1">
-      <c r="A1029" s="22"/>
-      <c r="B1029" s="1"/>
-      <c r="C1029" s="1"/>
-      <c r="D1029" s="1"/>
-      <c r="E1029" s="1"/>
-      <c r="F1029" s="1"/>
-      <c r="G1029" s="1"/>
-      <c r="H1029" s="1"/>
-      <c r="I1029" s="1"/>
-      <c r="J1029" s="1"/>
-      <c r="K1029" s="22"/>
-      <c r="L1029" s="22"/>
-      <c r="M1029" s="22"/>
-      <c r="N1029" s="22"/>
-      <c r="O1029" s="22"/>
-      <c r="P1029" s="22"/>
-      <c r="Q1029" s="22"/>
-      <c r="R1029" s="22"/>
-      <c r="S1029" s="22"/>
-      <c r="T1029" s="22"/>
-      <c r="U1029" s="22"/>
-      <c r="V1029" s="22"/>
-      <c r="W1029" s="22"/>
-      <c r="X1029" s="22"/>
-      <c r="Y1029" s="22"/>
-      <c r="Z1029" s="22"/>
-      <c r="AA1029" s="22"/>
+      <c r="A1029" s="33"/>
+      <c r="K1029" s="33"/>
+      <c r="L1029" s="33"/>
+      <c r="M1029" s="33"/>
+      <c r="N1029" s="33"/>
+      <c r="O1029" s="33"/>
+      <c r="P1029" s="33"/>
+      <c r="Q1029" s="33"/>
+      <c r="R1029" s="33"/>
+      <c r="S1029" s="33"/>
+      <c r="T1029" s="33"/>
+      <c r="U1029" s="33"/>
+      <c r="V1029" s="33"/>
+      <c r="W1029" s="33"/>
+      <c r="X1029" s="33"/>
+      <c r="Y1029" s="33"/>
+      <c r="Z1029" s="33"/>
+      <c r="AA1029" s="33"/>
     </row>
     <row r="1030" ht="14.25" customHeight="1">
-      <c r="A1030" s="22"/>
-      <c r="B1030" s="1"/>
-      <c r="C1030" s="1"/>
-      <c r="D1030" s="1"/>
-      <c r="E1030" s="1"/>
-      <c r="F1030" s="1"/>
-      <c r="G1030" s="1"/>
-      <c r="H1030" s="1"/>
-      <c r="I1030" s="1"/>
-      <c r="J1030" s="1"/>
-      <c r="K1030" s="22"/>
-      <c r="L1030" s="22"/>
-      <c r="M1030" s="22"/>
-      <c r="N1030" s="22"/>
-      <c r="O1030" s="22"/>
-      <c r="P1030" s="22"/>
-      <c r="Q1030" s="22"/>
-      <c r="R1030" s="22"/>
-      <c r="S1030" s="22"/>
-      <c r="T1030" s="22"/>
-      <c r="U1030" s="22"/>
-      <c r="V1030" s="22"/>
-      <c r="W1030" s="22"/>
-      <c r="X1030" s="22"/>
-      <c r="Y1030" s="22"/>
-      <c r="Z1030" s="22"/>
-      <c r="AA1030" s="22"/>
+      <c r="A1030" s="33"/>
+      <c r="K1030" s="33"/>
+      <c r="L1030" s="33"/>
+      <c r="M1030" s="33"/>
+      <c r="N1030" s="33"/>
+      <c r="O1030" s="33"/>
+      <c r="P1030" s="33"/>
+      <c r="Q1030" s="33"/>
+      <c r="R1030" s="33"/>
+      <c r="S1030" s="33"/>
+      <c r="T1030" s="33"/>
+      <c r="U1030" s="33"/>
+      <c r="V1030" s="33"/>
+      <c r="W1030" s="33"/>
+      <c r="X1030" s="33"/>
+      <c r="Y1030" s="33"/>
+      <c r="Z1030" s="33"/>
+      <c r="AA1030" s="33"/>
     </row>
     <row r="1031" ht="14.25" customHeight="1">
-      <c r="A1031" s="22"/>
-      <c r="B1031" s="1"/>
-      <c r="C1031" s="1"/>
-      <c r="D1031" s="1"/>
-      <c r="E1031" s="1"/>
-      <c r="F1031" s="1"/>
-      <c r="G1031" s="1"/>
-      <c r="H1031" s="1"/>
-      <c r="I1031" s="1"/>
-      <c r="J1031" s="1"/>
-      <c r="K1031" s="22"/>
-      <c r="L1031" s="22"/>
-      <c r="M1031" s="22"/>
-      <c r="N1031" s="22"/>
-      <c r="O1031" s="22"/>
-      <c r="P1031" s="22"/>
-      <c r="Q1031" s="22"/>
-      <c r="R1031" s="22"/>
-      <c r="S1031" s="22"/>
-      <c r="T1031" s="22"/>
-      <c r="U1031" s="22"/>
-      <c r="V1031" s="22"/>
-      <c r="W1031" s="22"/>
-      <c r="X1031" s="22"/>
-      <c r="Y1031" s="22"/>
-      <c r="Z1031" s="22"/>
-      <c r="AA1031" s="22"/>
+      <c r="A1031" s="33"/>
+      <c r="K1031" s="33"/>
+      <c r="L1031" s="33"/>
+      <c r="M1031" s="33"/>
+      <c r="N1031" s="33"/>
+      <c r="O1031" s="33"/>
+      <c r="P1031" s="33"/>
+      <c r="Q1031" s="33"/>
+      <c r="R1031" s="33"/>
+      <c r="S1031" s="33"/>
+      <c r="T1031" s="33"/>
+      <c r="U1031" s="33"/>
+      <c r="V1031" s="33"/>
+      <c r="W1031" s="33"/>
+      <c r="X1031" s="33"/>
+      <c r="Y1031" s="33"/>
+      <c r="Z1031" s="33"/>
+      <c r="AA1031" s="33"/>
     </row>
     <row r="1032" ht="14.25" customHeight="1">
-      <c r="A1032" s="22"/>
-      <c r="B1032" s="1"/>
-      <c r="C1032" s="1"/>
-      <c r="D1032" s="1"/>
-      <c r="E1032" s="1"/>
-      <c r="F1032" s="1"/>
-      <c r="G1032" s="1"/>
-      <c r="H1032" s="1"/>
-      <c r="I1032" s="1"/>
-      <c r="J1032" s="1"/>
-      <c r="K1032" s="22"/>
-      <c r="L1032" s="22"/>
-      <c r="M1032" s="22"/>
-      <c r="N1032" s="22"/>
-      <c r="O1032" s="22"/>
-      <c r="P1032" s="22"/>
-      <c r="Q1032" s="22"/>
-      <c r="R1032" s="22"/>
-      <c r="S1032" s="22"/>
-      <c r="T1032" s="22"/>
-      <c r="U1032" s="22"/>
-      <c r="V1032" s="22"/>
-      <c r="W1032" s="22"/>
-      <c r="X1032" s="22"/>
-      <c r="Y1032" s="22"/>
-      <c r="Z1032" s="22"/>
-      <c r="AA1032" s="22"/>
+      <c r="A1032" s="33"/>
+      <c r="K1032" s="33"/>
+      <c r="L1032" s="33"/>
+      <c r="M1032" s="33"/>
+      <c r="N1032" s="33"/>
+      <c r="O1032" s="33"/>
+      <c r="P1032" s="33"/>
+      <c r="Q1032" s="33"/>
+      <c r="R1032" s="33"/>
+      <c r="S1032" s="33"/>
+      <c r="T1032" s="33"/>
+      <c r="U1032" s="33"/>
+      <c r="V1032" s="33"/>
+      <c r="W1032" s="33"/>
+      <c r="X1032" s="33"/>
+      <c r="Y1032" s="33"/>
+      <c r="Z1032" s="33"/>
+      <c r="AA1032" s="33"/>
     </row>
     <row r="1033" ht="14.25" customHeight="1">
-      <c r="A1033" s="22"/>
-      <c r="B1033" s="1"/>
-      <c r="C1033" s="1"/>
-      <c r="D1033" s="1"/>
-      <c r="E1033" s="1"/>
-      <c r="F1033" s="1"/>
-      <c r="G1033" s="1"/>
-      <c r="H1033" s="1"/>
-      <c r="I1033" s="1"/>
-      <c r="J1033" s="1"/>
-      <c r="K1033" s="22"/>
-      <c r="L1033" s="22"/>
-      <c r="M1033" s="22"/>
-      <c r="N1033" s="22"/>
-      <c r="O1033" s="22"/>
-      <c r="P1033" s="22"/>
-      <c r="Q1033" s="22"/>
-      <c r="R1033" s="22"/>
-      <c r="S1033" s="22"/>
-      <c r="T1033" s="22"/>
-      <c r="U1033" s="22"/>
-      <c r="V1033" s="22"/>
-      <c r="W1033" s="22"/>
-      <c r="X1033" s="22"/>
-      <c r="Y1033" s="22"/>
-      <c r="Z1033" s="22"/>
-      <c r="AA1033" s="22"/>
+      <c r="A1033" s="33"/>
+      <c r="K1033" s="33"/>
+      <c r="L1033" s="33"/>
+      <c r="M1033" s="33"/>
+      <c r="N1033" s="33"/>
+      <c r="O1033" s="33"/>
+      <c r="P1033" s="33"/>
+      <c r="Q1033" s="33"/>
+      <c r="R1033" s="33"/>
+      <c r="S1033" s="33"/>
+      <c r="T1033" s="33"/>
+      <c r="U1033" s="33"/>
+      <c r="V1033" s="33"/>
+      <c r="W1033" s="33"/>
+      <c r="X1033" s="33"/>
+      <c r="Y1033" s="33"/>
+      <c r="Z1033" s="33"/>
+      <c r="AA1033" s="33"/>
     </row>
     <row r="1034" ht="14.25" customHeight="1">
-      <c r="A1034" s="22"/>
-      <c r="B1034" s="1"/>
-      <c r="C1034" s="1"/>
-      <c r="D1034" s="1"/>
-      <c r="E1034" s="1"/>
-      <c r="F1034" s="1"/>
-      <c r="G1034" s="1"/>
-      <c r="H1034" s="1"/>
-      <c r="I1034" s="1"/>
-      <c r="J1034" s="1"/>
-      <c r="K1034" s="22"/>
-      <c r="L1034" s="22"/>
-      <c r="M1034" s="22"/>
-      <c r="N1034" s="22"/>
-      <c r="O1034" s="22"/>
-      <c r="P1034" s="22"/>
-      <c r="Q1034" s="22"/>
-      <c r="R1034" s="22"/>
-      <c r="S1034" s="22"/>
-      <c r="T1034" s="22"/>
-      <c r="U1034" s="22"/>
-      <c r="V1034" s="22"/>
-      <c r="W1034" s="22"/>
-      <c r="X1034" s="22"/>
-      <c r="Y1034" s="22"/>
-      <c r="Z1034" s="22"/>
-      <c r="AA1034" s="22"/>
+      <c r="A1034" s="33"/>
+      <c r="K1034" s="33"/>
+      <c r="L1034" s="33"/>
+      <c r="M1034" s="33"/>
+      <c r="N1034" s="33"/>
+      <c r="O1034" s="33"/>
+      <c r="P1034" s="33"/>
+      <c r="Q1034" s="33"/>
+      <c r="R1034" s="33"/>
+      <c r="S1034" s="33"/>
+      <c r="T1034" s="33"/>
+      <c r="U1034" s="33"/>
+      <c r="V1034" s="33"/>
+      <c r="W1034" s="33"/>
+      <c r="X1034" s="33"/>
+      <c r="Y1034" s="33"/>
+      <c r="Z1034" s="33"/>
+      <c r="AA1034" s="33"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G58">
+    <dataValidation type="list" allowBlank="1" sqref="E5:E43">
+      <formula1>"En Proceso,Planificada,Eliminado (por tiempo)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G43">
       <formula1>"Sprint 1,Sprint 2,Sprint 3,Sprint 5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5:H58">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5:H43">
       <formula1>"Alta,Media,Baja"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E58">
-      <formula1>"En Proceso,Planificada"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -31287,7 +31310,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -31317,7 +31340,7 @@
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -31374,11 +31397,11 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="23" t="s">
-        <v>113</v>
+      <c r="B4" s="34" t="s">
+        <v>118</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>114</v>
+      <c r="C4" s="34" t="s">
+        <v>119</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -31406,11 +31429,11 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>115</v>
+      <c r="C5" s="35" t="s">
+        <v>120</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -31438,11 +31461,11 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>116</v>
+      <c r="C6" s="35" t="s">
+        <v>121</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -31470,11 +31493,11 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>117</v>
+      <c r="C7" s="35" t="s">
+        <v>122</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -31502,11 +31525,11 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>118</v>
+      <c r="C8" s="35" t="s">
+        <v>123</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -31534,11 +31557,11 @@
     </row>
     <row r="9" ht="50.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>119</v>
+      <c r="C9" s="35" t="s">
+        <v>124</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -31566,11 +31589,11 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>120</v>
+      <c r="C10" s="35" t="s">
+        <v>125</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -31598,11 +31621,11 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>121</v>
+      <c r="C11" s="35" t="s">
+        <v>126</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -31630,11 +31653,11 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>122</v>
+      <c r="C12" s="35" t="s">
+        <v>127</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
